--- a/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
@@ -451,127 +451,167 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5029</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>001219</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>上投摩根动态多因子策略混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>94.70</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.36</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001955</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧养老产业混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>89.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006102</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙商丰利增强债券</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004734</t>
+          <t>010429</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧瑾灵灵活配置混合A</t>
+          <t>中欧睿见混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.09</t>
+          <t>46.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8942</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004735</t>
+          <t>100022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧瑾灵灵活配置混合C</t>
+          <t>富国天瑞强势地区精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.09</t>
+          <t>40.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7223</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166801</t>
+          <t>160726</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浙商聚潮新思维混合</t>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>75.34</t>
+          <t>31.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9130</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001827</t>
+          <t>009138</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国研究优选沪港深灵活配置混合</t>
+          <t>嘉实瑞成两年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>77.43</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6028</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005840</t>
+          <t>001955</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国产业驱动混合</t>
+          <t>中欧养老产业混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>81.11</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4959</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -762,26 +862,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006102</t>
+          <t>005840</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商丰利增强债券</t>
+          <t>富国产业驱动混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>34.62</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4638</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -790,26 +900,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010429</t>
+          <t>002340</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧睿见混合</t>
+          <t>富国价值优势混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>78.99</t>
+          <t>17.51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4255</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -818,26 +938,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>900009</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>中信证券成长动力混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>11.14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>71.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3877</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -846,26 +976,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007388</t>
+          <t>688888</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上投摩根研究驱动股票A</t>
+          <t>浙商聚潮产业成长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.63</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2630</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007389</t>
+          <t>163302</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上投摩根研究驱动股票C</t>
+          <t>大摩资源优选混合(LOF)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.63</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001437</t>
+          <t>002967</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合I</t>
+          <t>浙商大数据智选消费灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001438</t>
+          <t>166801</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合E</t>
+          <t>浙商聚潮新思维混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>100022</t>
+          <t>009139</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富国天瑞强势地区精选混合</t>
+          <t>嘉实瑞成两年持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>79.01</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>001437</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>易方达瑞享灵活配置混合I</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001955</t>
+          <t>001438</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中欧养老产业混合</t>
+          <t>易方达瑞享灵活配置混合E</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>90.77</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>160726</t>
+          <t>900059</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
+          <t>中信证券成长动力混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>98.20</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>71.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>688888</t>
+          <t>006102</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>浙商聚潮产业成长混合</t>
+          <t>浙商丰利增强债券</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>34.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002340</t>
+          <t>004734</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>富国价值优势混合</t>
+          <t>中欧瑾灵灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>28.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>163302</t>
+          <t>001827</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大摩资源优选混合(LOF)</t>
+          <t>富国研究优选沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>92.03</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002967</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>浙商大数据智选消费灵活配置混合</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009138</t>
+          <t>007388</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合A</t>
+          <t>上投摩根研究驱动股票A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009139</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合C</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>900009</t>
+          <t>007389</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中信证券成长动力混合A</t>
+          <t>上投摩根研究驱动股票C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>71.79</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>900059</t>
+          <t>004735</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中信证券成长动力混合C</t>
+          <t>中欧瑾灵灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>71.79</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
+          <t>28.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,896 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5272</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6199</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8775</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8064</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6706</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4067</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2473</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>36.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2474,4 +2475,970 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4626</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9789</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8968</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6166</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3133</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3441,4 +3442,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3450,7 +3451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3461,17 +3462,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3481,14 +3502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.47</v>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3389</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3497,14 +3540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.77</v>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6710</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3513,14 +3578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.65</v>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4120</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3529,13 +3616,911 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2013</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>69.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0640</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7943</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2668</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9810</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5675</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4650</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3802</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2131</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4419,7 +4420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4430,17 +4431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4450,14 +4471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.4</v>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7579</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4466,14 +4509,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.47</v>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7289</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4482,14 +4547,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.77</v>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7262</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4498,14 +4585,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.65</v>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6922</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4514,13 +4623,1421 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4632</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3970</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2919</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5920,7 +5921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5931,17 +5932,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5951,14 +5972,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.91</v>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7200</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5967,14 +6010,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.4</v>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>43.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9019</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5983,14 +6048,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.47</v>
+          <t>012765</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8278</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -5999,14 +6086,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.77</v>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6597</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -6015,14 +6124,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.65</v>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5898</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -6031,13 +6162,903 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3341</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2837</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012766</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015111</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,37 +468,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -508,36 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001955</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧养老产业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5029</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.09</v>
       </c>
     </row>
     <row r="3">
@@ -546,36 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006102</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商丰利增强债券</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0678</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.91</v>
       </c>
     </row>
     <row r="4">
@@ -584,36 +520,78 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001219</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根动态多因子策略混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0377</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
@@ -627,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -678,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010429</t>
+          <t>010699</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧睿见混合</t>
+          <t>东方红创新趋势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.25</t>
+          <t>30.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.99</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.42</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.8942</t>
+          <t>1.7200</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -716,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100022</t>
+          <t>002211</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国天瑞强势地区精选混合</t>
+          <t>嘉实新财富灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40.43</t>
+          <t>35.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.01</t>
+          <t>43.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7223</t>
+          <t>0.9019</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -754,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160726</t>
+          <t>012765</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
+          <t>广发大盘价值混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31.16</t>
+          <t>15.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.20</t>
+          <t>87.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9130</t>
+          <t>0.8278</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -792,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009138</t>
+          <t>012671</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合A</t>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>11.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6028</t>
+          <t>0.6597</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -830,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001955</t>
+          <t>070027</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧养老产业混合</t>
+          <t>嘉实周期优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>10.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.77</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4959</t>
+          <t>0.5898</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -868,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005840</t>
+          <t>020003</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国产业驱动混合</t>
+          <t>国泰金龙行业混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>12.77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.11</t>
+          <t>76.19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4638</t>
+          <t>0.4035</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -906,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002340</t>
+          <t>003298</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国价值优势混合</t>
+          <t>嘉实物流产业股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17.51</t>
+          <t>10.64</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>88.01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4255</t>
+          <t>0.3341</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -944,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>900009</t>
+          <t>910021</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中信证券成长动力混合A</t>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.14</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>71.79</t>
+          <t>86.80</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3877</t>
+          <t>0.2837</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -982,36 +960,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>688888</t>
+          <t>163302</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>浙商聚潮产业成长混合</t>
+          <t>大摩资源优选混合(LOF)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2630</t>
+          <t>0.2596</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1020,36 +998,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>163302</t>
+          <t>012766</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大摩资源优选混合(LOF)</t>
+          <t>广发大盘价值混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.03</t>
+          <t>87.98</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2290</t>
+          <t>0.2137</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1058,36 +1036,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002967</t>
+          <t>007657</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>浙商大数据智选消费灵活配置混合</t>
+          <t>东方红中证竞争力指数A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2064</t>
+          <t>0.1979</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1096,36 +1074,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>166801</t>
+          <t>003299</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>浙商聚潮新思维混合</t>
+          <t>嘉实物流产业股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>75.34</t>
+          <t>88.01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1849</t>
+          <t>0.1639</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1134,36 +1112,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009139</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合C</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1438</t>
+          <t>0.1205</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1172,36 +1150,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001437</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合I</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1204</t>
+          <t>0.1202</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1210,36 +1188,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001438</t>
+          <t>015110</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合E</t>
+          <t>惠升领先优选混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>85.31</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1204</t>
+          <t>0.0744</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1248,36 +1226,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>900059</t>
+          <t>001741</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中信证券成长动力混合C</t>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>71.79</t>
+          <t>73.79</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1016</t>
+          <t>0.0516</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1286,36 +1264,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006102</t>
+          <t>001742</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>浙商丰利增强债券</t>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>34.62</t>
+          <t>73.79</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0878</t>
+          <t>0.0516</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1324,36 +1302,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>004734</t>
+          <t>011313</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中欧瑾灵灵活配置混合A</t>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>28.09</t>
+          <t>86.80</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0862</t>
+          <t>0.0474</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1362,36 +1340,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001827</t>
+          <t>012672</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>富国研究优选沪港深灵活配置混合</t>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>77.43</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0615</t>
+          <t>0.0269</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1400,36 +1378,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>007658</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>东方红中证竞争力指数C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0563</t>
+          <t>0.0251</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1438,36 +1416,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007388</t>
+          <t>012673</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上投摩根研究驱动股票A</t>
+          <t>华融融兴6个月定开混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>89.63</t>
+          <t>26.57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0388</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1476,36 +1454,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>009127</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>嘉实基础产业优选股票C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0359</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1514,36 +1492,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>007389</t>
+          <t>005166</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上投摩根研究驱动股票C</t>
+          <t>嘉实润和量化6个月定期开放混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>89.63</t>
+          <t>27.75</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1552,36 +1530,72 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>004735</t>
+          <t>012674</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中欧瑾灵灵活配置混合C</t>
+          <t>华融融兴6个月定开混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>28.09</t>
+          <t>26.57</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015111</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1595,7 +1609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1616,7 +1630,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1646,36 +1660,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010429</t>
+          <t>010115</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧睿见混合</t>
+          <t>易方达远见成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.11</t>
+          <t>24.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.93</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.5272</t>
+          <t>1.7579</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1684,36 +1698,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100022</t>
+          <t>010699</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国天瑞强势地区精选混合</t>
+          <t>东方红创新趋势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>48.50</t>
+          <t>30.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.97</t>
+          <t>78.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.6199</t>
+          <t>1.7289</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1722,32 +1736,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160726</t>
+          <t>010112</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
+          <t>广发研究精选股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31.68</t>
+          <t>23.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.39</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8775</t>
+          <t>0.7262</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1760,36 +1774,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009138</t>
+          <t>012671</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合A</t>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.80</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.93</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8064</t>
+          <t>0.6922</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1798,36 +1812,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001955</t>
+          <t>070027</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧养老产业混合</t>
+          <t>嘉实周期优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>90.55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6706</t>
+          <t>0.4632</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1836,36 +1850,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>070027</t>
+          <t>011891</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实周期优选混合</t>
+          <t>易方达先锋成长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.02</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4067</t>
+          <t>0.3970</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1874,36 +1888,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>163302</t>
+          <t>000471</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大摩资源优选混合(LOF)</t>
+          <t>富国城镇发展股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>86.29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4002</t>
+          <t>0.2919</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1912,36 +1926,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>900009</t>
+          <t>910021</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中信证券成长动力混合A</t>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.78</t>
+          <t>86.11</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3555</t>
+          <t>0.2757</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1950,36 +1964,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>688888</t>
+          <t>001437</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>浙商聚潮产业成长混合</t>
+          <t>易方达瑞享灵活配置混合I</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2473</t>
+          <t>0.2002</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1988,36 +2002,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006102</t>
+          <t>001438</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>浙商丰利增强债券</t>
+          <t>易方达瑞享灵活配置混合E</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>36.30</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1655</t>
+          <t>0.2002</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -2026,36 +2040,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009139</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合C</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>87.93</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1574</t>
+          <t>0.1482</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -2064,32 +2078,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007593</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数A</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>95.40</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1514</t>
+          <t>0.1406</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2102,36 +2116,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>900059</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中信证券成长动力混合C</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>87.78</t>
+          <t>90.79</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0706</t>
+          <t>0.1109</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -2140,36 +2154,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>011412</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>易方达远见成长混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.19</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0689</t>
+          <t>0.1098</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -2178,36 +2192,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004734</t>
+          <t>010113</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中欧瑾灵灵活配置混合A</t>
+          <t>广发研究精选股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27.21</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0657</t>
+          <t>0.1074</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -2216,36 +2230,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007594</t>
+          <t>006048</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数C</t>
+          <t>长城中证500指数增强A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>95.40</t>
+          <t>92.64</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0565</t>
+          <t>0.1068</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -2254,36 +2268,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>376510</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>上投摩根大盘蓝筹股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>89.86</t>
+          <t>86.82</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0429</t>
+          <t>0.0944</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -2292,36 +2306,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002772</t>
+          <t>011313</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>光大保德信产业新动力灵活配置混合</t>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92.95</t>
+          <t>86.11</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0451</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2330,36 +2344,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>004735</t>
+          <t>009956</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中欧瑾灵灵活配置混合C</t>
+          <t>广发恒誉混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27.21</t>
+          <t>21.40</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0124</t>
+          <t>0.0445</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2368,36 +2382,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010153</t>
+          <t>007413</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中加中证500指数增强A</t>
+          <t>长城中证500指数增强C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>92.64</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.0413</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -2406,36 +2420,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010154</t>
+          <t>001537</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中加中证500指数增强C</t>
+          <t>中加改革红利灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>87.80</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0361</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -2444,36 +2458,644 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>009127</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>嘉实基础产业优选股票C</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2508,7 +3130,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2538,36 +3160,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100022</t>
+          <t>010115</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国天瑞强势地区精选混合</t>
+          <t>易方达远见成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.96</t>
+          <t>75.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.75</t>
+          <t>88.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4626</t>
+          <t>4.3389</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2576,36 +3198,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160726</t>
+          <t>005730</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
+          <t>国泰江源优势精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.13</t>
+          <t>70.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>92.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9789</t>
+          <t>3.6710</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2614,36 +3236,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009138</t>
+          <t>952009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合A</t>
+          <t>国泰君安君得鑫两年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.07</t>
+          <t>80.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>91.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8968</t>
+          <t>2.4120</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2652,36 +3274,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>070027</t>
+          <t>009474</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实周期优选混合</t>
+          <t>国泰致远优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>41.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6166</t>
+          <t>2.2013</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2690,36 +3312,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519021</t>
+          <t>952099</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰金鼎价值混合</t>
+          <t>国泰君安君得鑫两年持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>69.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.64</t>
+          <t>91.78</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3133</t>
+          <t>2.0640</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2728,36 +3350,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007593</t>
+          <t>010699</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数A</t>
+          <t>东方红创新趋势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.88</t>
+          <t>35.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>76.40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2720</t>
+          <t>1.7943</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2766,36 +3388,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>910021</t>
+          <t>012671</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方红启华三年持有期混合型证券投资基金A</t>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>20.14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>80.42</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1872</t>
+          <t>1.2668</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -2804,32 +3426,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009139</t>
+          <t>160726</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合C</t>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>29.91</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>95.81</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1758</t>
+          <t>0.9810</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2842,36 +3464,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007594</t>
+          <t>070027</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数C</t>
+          <t>嘉实周期优选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>90.70</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1118</t>
+          <t>0.5675</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -2880,36 +3502,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007831</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票A</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.30</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1038</t>
+          <t>0.4650</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -2918,36 +3540,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>009138</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>嘉实瑞成两年持有期混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>11.70</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>91.51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1036</t>
+          <t>0.3802</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -2956,36 +3578,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007832</t>
+          <t>011325</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票C</t>
+          <t>国泰江源优势精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.30</t>
+          <t>92.78</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0597</t>
+          <t>0.2131</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -2994,32 +3616,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>020015</t>
+          <t>009139</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国泰区位优势混合</t>
+          <t>嘉实瑞成两年持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>86.25</t>
+          <t>91.51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0548</t>
+          <t>0.1765</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -3032,36 +3654,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010153</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中加中证500指数增强A</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0338</t>
+          <t>0.1557</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -3070,32 +3692,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001626</t>
+          <t>001437</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国泰央企改革股票</t>
+          <t>易方达瑞享灵活配置混合I</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85.19</t>
+          <t>91.14</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0306</t>
+          <t>0.1522</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -3108,36 +3730,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011313</t>
+          <t>001438</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东方红启华三年持有期混合型证券投资基金B</t>
+          <t>易方达瑞享灵活配置混合E</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80.42</t>
+          <t>91.14</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0291</t>
+          <t>0.1522</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -3146,36 +3768,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010154</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中加中证500指数增强C</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>93.03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0156</t>
+          <t>0.1166</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -3184,36 +3806,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009127</t>
+          <t>011412</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票C</t>
+          <t>易方达远见成长混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>88.28</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0082</t>
+          <t>0.1142</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -3222,32 +3844,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>519034</t>
+          <t>009608</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强A</t>
+          <t>广发中证500指数增强A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>89.70</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0711</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -3260,32 +3882,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005166</t>
+          <t>010153</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
+          <t>中加中证500指数增强A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>27.62</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0469</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -3298,36 +3920,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006157</t>
+          <t>012672</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>财通量化核心优选混合</t>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0333</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -3336,36 +3958,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011084</t>
+          <t>010154</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>财通资管新添益6个月持有期混合A</t>
+          <t>中加中证500指数增强C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0142</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -3374,36 +3996,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009004</t>
+          <t>009127</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强C</t>
+          <t>嘉实基础产业优选股票C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>89.70</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -3412,34 +4034,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>011085</t>
+          <t>009609</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>财通资管新添益6个月持有期混合C</t>
+          <t>广发中证500指数增强C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3474,7 +4098,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3504,36 +4128,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010115</t>
+          <t>100022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达远见成长混合A</t>
+          <t>富国天瑞强势地区精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>75.59</t>
+          <t>50.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>80.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.3389</t>
+          <t>1.4626</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3542,36 +4166,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005730</t>
+          <t>160726</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰江源优势精选灵活配置混合A</t>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>70.46</t>
+          <t>28.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.78</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.6710</t>
+          <t>0.9789</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3580,36 +4204,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>952009</t>
+          <t>009138</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰君安君得鑫两年持有期混合A</t>
+          <t>嘉实瑞成两年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80.67</t>
+          <t>26.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.78</t>
+          <t>89.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.4120</t>
+          <t>0.8968</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3618,36 +4242,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009474</t>
+          <t>070027</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰致远优势混合</t>
+          <t>嘉实周期优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>41.93</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>90.01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.2013</t>
+          <t>0.6166</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3656,36 +4280,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>952099</t>
+          <t>519021</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰君安君得鑫两年持有期混合C</t>
+          <t>国泰金鼎价值混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>69.03</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.78</t>
+          <t>84.64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.0640</t>
+          <t>0.3133</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -3694,36 +4318,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010699</t>
+          <t>007593</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方红创新趋势混合</t>
+          <t>鹏扬中证500质量成长指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35.53</t>
+          <t>10.88</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.40</t>
+          <t>95.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.7943</t>
+          <t>0.2720</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3732,36 +4356,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012671</t>
+          <t>910021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.14</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>80.42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.2668</t>
+          <t>0.1872</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -3770,32 +4394,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160726</t>
+          <t>009139</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
+          <t>嘉实瑞成两年持有期混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29.91</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>95.81</t>
+          <t>89.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.9810</t>
+          <t>0.1758</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3808,36 +4432,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>070027</t>
+          <t>007594</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实周期优选混合</t>
+          <t>鹏扬中证500质量成长指数C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.70</t>
+          <t>95.03</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5675</t>
+          <t>0.1118</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -3846,36 +4470,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>007831</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>博道伍佰智航股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>92.30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.4650</t>
+          <t>0.1038</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -3884,36 +4508,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009138</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合A</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11.70</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.51</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3802</t>
+          <t>0.1036</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -3922,36 +4546,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011325</t>
+          <t>007832</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰江源优势精选灵活配置混合C</t>
+          <t>博道伍佰智航股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.78</t>
+          <t>92.30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2131</t>
+          <t>0.0597</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -3960,32 +4584,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009139</t>
+          <t>020015</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合C</t>
+          <t>国泰区位优势混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.51</t>
+          <t>86.25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1765</t>
+          <t>0.0548</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -3998,36 +4622,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>161123</t>
+          <t>010153</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达并购重组指数（LOF）</t>
+          <t>中加中证500指数增强A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1557</t>
+          <t>0.0338</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -4036,32 +4660,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001437</t>
+          <t>001626</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合I</t>
+          <t>国泰央企改革股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>85.19</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1522</t>
+          <t>0.0306</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -4074,36 +4698,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001438</t>
+          <t>011313</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合E</t>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>80.42</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1522</t>
+          <t>0.0291</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -4112,36 +4736,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>010154</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>中加中证500指数增强C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1166</t>
+          <t>0.0156</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -4150,36 +4774,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011412</t>
+          <t>009127</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>易方达远见成长混合C</t>
+          <t>嘉实基础产业优选股票C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1142</t>
+          <t>0.0082</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -4188,32 +4812,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009608</t>
+          <t>519034</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发中证500指数增强A</t>
+          <t>海富通中证500指数增强A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>89.70</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0711</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -4226,32 +4850,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010153</t>
+          <t>005166</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中加中证500指数增强A</t>
+          <t>嘉实润和量化6个月定期开放混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>27.62</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0469</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -4264,36 +4888,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>012672</t>
+          <t>006157</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+          <t>财通量化核心优选混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>93.30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0333</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -4302,36 +4926,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010154</t>
+          <t>011084</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中加中证500指数增强C</t>
+          <t>财通资管新添益6个月持有期混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>21.05</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -4340,36 +4964,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009127</t>
+          <t>009004</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票C</t>
+          <t>海富通中证500指数增强C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>89.70</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -4378,36 +5002,34 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009609</t>
+          <t>011085</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广发中证500指数增强C</t>
+          <t>财通资管新添益6个月持有期混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>21.05</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4421,7 +5043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4442,7 +5064,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4472,36 +5094,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010115</t>
+          <t>010429</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达远见成长混合A</t>
+          <t>中欧睿见混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.97</t>
+          <t>41.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>85.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7579</t>
+          <t>3.5272</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4510,36 +5132,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010699</t>
+          <t>100022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红创新趋势混合</t>
+          <t>富国天瑞强势地区精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30.12</t>
+          <t>48.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.82</t>
+          <t>78.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7289</t>
+          <t>1.6199</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4548,32 +5170,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010112</t>
+          <t>160726</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发研究精选股票A</t>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.81</t>
+          <t>31.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>96.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7262</t>
+          <t>0.8775</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -4586,36 +5208,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012671</t>
+          <t>009138</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+          <t>嘉实瑞成两年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>28.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>87.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6922</t>
+          <t>0.8064</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4624,36 +5246,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>070027</t>
+          <t>001955</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实周期优选混合</t>
+          <t>中欧养老产业混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.55</t>
+          <t>91.36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4632</t>
+          <t>0.6706</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -4662,36 +5284,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011891</t>
+          <t>070027</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达先锋成长混合A</t>
+          <t>嘉实周期优选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>90.02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3970</t>
+          <t>0.4067</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -4700,36 +5322,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000471</t>
+          <t>163302</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国城镇发展股票</t>
+          <t>大摩资源优选混合(LOF)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.29</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2919</t>
+          <t>0.4002</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -4738,36 +5360,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>910021</t>
+          <t>900009</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方红启华三年持有期混合型证券投资基金A</t>
+          <t>中信证券成长动力混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>87.78</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2757</t>
+          <t>0.3555</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -4776,36 +5398,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001437</t>
+          <t>688888</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合I</t>
+          <t>浙商聚潮产业成长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2002</t>
+          <t>0.2473</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -4814,36 +5436,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001438</t>
+          <t>006102</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合E</t>
+          <t>浙商丰利增强债券</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>36.30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2002</t>
+          <t>0.1655</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -4852,36 +5474,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>161123</t>
+          <t>009139</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>易方达并购重组指数（LOF）</t>
+          <t>嘉实瑞成两年持有期混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>87.93</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1482</t>
+          <t>0.1574</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -4890,32 +5512,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>007593</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>鹏扬中证500质量成长指数A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>95.40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1406</t>
+          <t>0.1514</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4928,36 +5550,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>900059</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>中信证券成长动力混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>87.78</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1109</t>
+          <t>0.0706</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -4966,36 +5588,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011412</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达远见成长混合C</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>92.19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1098</t>
+          <t>0.0689</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -5004,36 +5626,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010113</t>
+          <t>004734</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发研究精选股票C</t>
+          <t>中欧瑾灵灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>27.21</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1074</t>
+          <t>0.0657</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -5042,36 +5664,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006048</t>
+          <t>007594</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>长城中证500指数增强A</t>
+          <t>鹏扬中证500质量成长指数C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>95.40</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1068</t>
+          <t>0.0565</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -5080,36 +5702,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>376510</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上投摩根大盘蓝筹股票</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>86.82</t>
+          <t>89.86</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0944</t>
+          <t>0.0429</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -5118,36 +5740,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011313</t>
+          <t>002772</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东方红启华三年持有期混合型证券投资基金B</t>
+          <t>光大保德信产业新动力灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>92.95</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0451</t>
+          <t>0.0403</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -5156,36 +5778,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009956</t>
+          <t>004735</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发恒誉混合A</t>
+          <t>中欧瑾灵灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>27.21</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0445</t>
+          <t>0.0124</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -5194,36 +5816,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007413</t>
+          <t>010153</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>长城中证500指数增强C</t>
+          <t>中加中证500指数增强A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0413</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -5232,36 +5854,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001537</t>
+          <t>010154</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中加改革红利灵活配置混合</t>
+          <t>中加中证500指数增强C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>87.80</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0361</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -5270,644 +5892,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>012672</t>
+          <t>009127</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+          <t>嘉实基础产业优选股票C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>92.19</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0293</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007388</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>上投摩根研究驱动股票A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>86.57</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0274</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>010153</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>014133</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>工银中证500六个月持有指数增强A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0252</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>161038</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>富国新兴成长量化精选混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0237</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>011892</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>易方达先锋成长混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>010154</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>014134</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>工银中证500六个月持有指数增强C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>519034</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>007389</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>上投摩根研究驱动股票C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>86.57</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>005166</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>28.26</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>009957</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>广发恒誉混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>21.40</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>009004</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>004790</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>84.00</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>004791</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>84.00</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>003582</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>中金量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -5921,7 +5935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5942,7 +5956,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -5972,36 +5986,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010699</t>
+          <t>010429</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红创新趋势混合</t>
+          <t>中欧睿见混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.88</t>
+          <t>46.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>78.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7200</t>
+          <t>3.8942</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -6010,36 +6024,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002211</t>
+          <t>100022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实新财富灵活配置混合</t>
+          <t>富国天瑞强势地区精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>35.37</t>
+          <t>40.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>43.06</t>
+          <t>79.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9019</t>
+          <t>1.7223</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6048,36 +6062,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012765</t>
+          <t>160726</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发大盘价值混合A</t>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.92</t>
+          <t>31.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.98</t>
+          <t>98.20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8278</t>
+          <t>0.9130</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6086,36 +6100,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012671</t>
+          <t>009138</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+          <t>嘉实瑞成两年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.76</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6597</t>
+          <t>0.6028</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -6124,36 +6138,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>070027</t>
+          <t>001955</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实周期优选混合</t>
+          <t>中欧养老产业混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.42</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>90.77</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5898</t>
+          <t>0.4959</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -6162,36 +6176,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>020003</t>
+          <t>005840</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰金龙行业混合</t>
+          <t>富国产业驱动混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.77</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.19</t>
+          <t>81.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4035</t>
+          <t>0.4638</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -6200,36 +6214,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003298</t>
+          <t>002340</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票A</t>
+          <t>富国价值优势混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.64</t>
+          <t>17.51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.01</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3341</t>
+          <t>0.4255</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -6238,36 +6252,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>910021</t>
+          <t>900009</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方红启华三年持有期混合型证券投资基金A</t>
+          <t>中信证券成长动力混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>11.14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>71.79</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2837</t>
+          <t>0.3877</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -6276,36 +6290,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>163302</t>
+          <t>688888</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大摩资源优选混合(LOF)</t>
+          <t>浙商聚潮产业成长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2596</t>
+          <t>0.2630</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -6314,36 +6328,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>012766</t>
+          <t>163302</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发大盘价值混合C</t>
+          <t>大摩资源优选混合(LOF)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.98</t>
+          <t>92.03</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2137</t>
+          <t>0.2290</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -6352,36 +6366,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007657</t>
+          <t>002967</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东方红中证竞争力指数A</t>
+          <t>浙商大数据智选消费灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1979</t>
+          <t>0.2064</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -6390,36 +6404,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>003299</t>
+          <t>166801</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票C</t>
+          <t>浙商聚潮新思维混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88.01</t>
+          <t>75.34</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1639</t>
+          <t>0.1849</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -6428,36 +6442,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>161123</t>
+          <t>009139</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>易方达并购重组指数（LOF）</t>
+          <t>嘉实瑞成两年持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1205</t>
+          <t>0.1438</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -6466,36 +6480,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>001437</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>易方达瑞享灵活配置混合I</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1202</t>
+          <t>0.1204</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -6504,36 +6518,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>015110</t>
+          <t>001438</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>惠升领先优选混合A</t>
+          <t>易方达瑞享灵活配置混合E</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85.31</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0744</t>
+          <t>0.1204</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -6542,36 +6556,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001741</t>
+          <t>900059</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广发百发大数据策略精选灵活配置混合A</t>
+          <t>中信证券成长动力混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>73.79</t>
+          <t>71.79</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.1016</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -6580,36 +6594,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001742</t>
+          <t>006102</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广发百发大数据策略精选灵活配置混合E</t>
+          <t>浙商丰利增强债券</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>73.79</t>
+          <t>34.62</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.0878</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -6618,36 +6632,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011313</t>
+          <t>004734</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东方红启华三年持有期混合型证券投资基金B</t>
+          <t>中欧瑾灵灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>28.09</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0474</t>
+          <t>0.0862</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -6656,36 +6670,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>012672</t>
+          <t>001827</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+          <t>富国研究优选沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>77.43</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0269</t>
+          <t>0.0615</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -6694,36 +6708,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007658</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>东方红中证竞争力指数C</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0251</t>
+          <t>0.0563</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -6732,36 +6746,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>012673</t>
+          <t>007388</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华融融兴6个月定开混合A</t>
+          <t>上投摩根研究驱动股票A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>26.57</t>
+          <t>89.63</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0388</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -6770,36 +6784,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009127</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票C</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>89.73</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0359</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -6808,36 +6822,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005166</t>
+          <t>007389</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
+          <t>上投摩根研究驱动股票C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>27.75</t>
+          <t>89.63</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -6846,72 +6860,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>012674</t>
+          <t>004735</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华融融兴6个月定开混合C</t>
+          <t>中欧瑾灵灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>26.57</t>
+          <t>28.09</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>015111</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>惠升领先优选混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>85.31</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6925,7 +6903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6936,17 +6914,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6956,14 +6954,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.09</v>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5029</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6972,14 +6992,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.91</v>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6988,78 +7030,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.47</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.77</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>24</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.61</v>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>7.09</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>7.91</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>21.4</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>5.47</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>9.77</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>10.65</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -600,6 +617,2414 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4948</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4790</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7035</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012765</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6175</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6108</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5621</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4545</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3941</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012766</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2085</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010532</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014031</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方发展机遇一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010533</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014032</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方发展机遇一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011192</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>38.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015889</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009156</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通富泽混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002339</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519050</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009155</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通富盈混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009154</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>海富通富盈混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010850</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009157</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>海富通富泽混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010851</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011193</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015890</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>38.28</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015158</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1603,7 +4028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3096,974 +5521,6 @@
       </c>
       <c r="H39" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010115</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达远见成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>75.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.3389</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005730</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰江源优势精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>70.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.6710</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>952009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰君安君得鑫两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>80.67</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.78</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.4120</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009474</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰致远优势混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>41.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.85</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.2013</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>952099</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰君安君得鑫两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>69.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.78</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.0640</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010699</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方红创新趋势混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>35.53</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>76.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.7943</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012671</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实核心蓝筹混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20.14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.2668</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160726</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>29.91</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>95.81</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.9810</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>070027</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实周期优选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.84</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.70</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5675</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009126</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4650</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009138</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>11.70</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3802</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011325</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰江源优势精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2131</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009139</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1765</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>161123</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>易方达并购重组指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1557</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001437</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合I</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1522</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001438</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1522</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001637</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1166</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011412</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>易方达远见成长混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1142</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009608</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0711</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010153</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0469</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>012672</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>嘉实核心蓝筹混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0333</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010154</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009609</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4098,7 +5555,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4128,36 +5585,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100022</t>
+          <t>010115</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国天瑞强势地区精选混合</t>
+          <t>易方达远见成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.96</t>
+          <t>75.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.75</t>
+          <t>88.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4626</t>
+          <t>4.3389</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4166,36 +5623,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160726</t>
+          <t>005730</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
+          <t>国泰江源优势精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.13</t>
+          <t>70.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>92.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9789</t>
+          <t>3.6710</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4204,36 +5661,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009138</t>
+          <t>952009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合A</t>
+          <t>国泰君安君得鑫两年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.07</t>
+          <t>80.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>91.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8968</t>
+          <t>2.4120</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4242,36 +5699,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>070027</t>
+          <t>009474</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实周期优选混合</t>
+          <t>国泰致远优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>41.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6166</t>
+          <t>2.2013</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -4280,36 +5737,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519021</t>
+          <t>952099</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰金鼎价值混合</t>
+          <t>国泰君安君得鑫两年持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>69.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.64</t>
+          <t>91.78</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3133</t>
+          <t>2.0640</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -4318,36 +5775,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007593</t>
+          <t>010699</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数A</t>
+          <t>东方红创新趋势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.88</t>
+          <t>35.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>76.40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2720</t>
+          <t>1.7943</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -4356,36 +5813,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>910021</t>
+          <t>012671</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方红启华三年持有期混合型证券投资基金A</t>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>20.14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>80.42</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1872</t>
+          <t>1.2668</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -4394,32 +5851,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009139</t>
+          <t>160726</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合C</t>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>29.91</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>95.81</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1758</t>
+          <t>0.9810</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -4432,36 +5889,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007594</t>
+          <t>070027</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数C</t>
+          <t>嘉实周期优选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>90.70</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1118</t>
+          <t>0.5675</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -4470,36 +5927,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007831</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票A</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.30</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1038</t>
+          <t>0.4650</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -4508,36 +5965,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>009138</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>嘉实瑞成两年持有期混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>11.70</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>91.51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1036</t>
+          <t>0.3802</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -4546,36 +6003,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007832</t>
+          <t>011325</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票C</t>
+          <t>国泰江源优势精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.30</t>
+          <t>92.78</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0597</t>
+          <t>0.2131</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -4584,32 +6041,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>020015</t>
+          <t>009139</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国泰区位优势混合</t>
+          <t>嘉实瑞成两年持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>86.25</t>
+          <t>91.51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0548</t>
+          <t>0.1765</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -4622,36 +6079,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010153</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中加中证500指数增强A</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0338</t>
+          <t>0.1557</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -4660,32 +6117,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001626</t>
+          <t>001437</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国泰央企改革股票</t>
+          <t>易方达瑞享灵活配置混合I</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85.19</t>
+          <t>91.14</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0306</t>
+          <t>0.1522</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -4698,36 +6155,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011313</t>
+          <t>001438</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东方红启华三年持有期混合型证券投资基金B</t>
+          <t>易方达瑞享灵活配置混合E</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80.42</t>
+          <t>91.14</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0291</t>
+          <t>0.1522</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -4736,36 +6193,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010154</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中加中证500指数增强C</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>93.03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0156</t>
+          <t>0.1166</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -4774,36 +6231,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009127</t>
+          <t>011412</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票C</t>
+          <t>易方达远见成长混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>88.28</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0082</t>
+          <t>0.1142</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -4812,32 +6269,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>519034</t>
+          <t>009608</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强A</t>
+          <t>广发中证500指数增强A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>89.70</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0711</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -4850,32 +6307,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005166</t>
+          <t>010153</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
+          <t>中加中证500指数增强A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>27.62</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0469</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -4888,36 +6345,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006157</t>
+          <t>012672</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>财通量化核心优选混合</t>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0333</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -4926,36 +6383,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011084</t>
+          <t>010154</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>财通资管新添益6个月持有期混合A</t>
+          <t>中加中证500指数增强C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0142</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -4964,36 +6421,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009004</t>
+          <t>009127</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强C</t>
+          <t>嘉实基础产业优选股票C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>89.70</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -5002,34 +6459,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>011085</t>
+          <t>009609</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>财通资管新添益6个月持有期混合C</t>
+          <t>广发中证500指数增强C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5038,6 +6497,972 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4626</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9789</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8968</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6166</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3133</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5929,7 +8354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6897,7 +9322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600803-新奥股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>8.92</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>7.09</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>7.91</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>21.4</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>5.47</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>9.77</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>10.65</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,200 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5029</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +804,974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>47.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6062</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2964</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2831</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2515</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4817</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4169</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3536</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012765</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3471</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012766</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011192</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009155</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通富盈混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009154</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通富盈混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011193</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3024,7 +4179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4028,7 +5183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5521,974 +6676,6 @@
       </c>
       <c r="H39" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010115</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达远见成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>75.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.3389</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005730</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰江源优势精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>70.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.6710</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>952009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰君安君得鑫两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>80.67</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.78</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.4120</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009474</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰致远优势混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>41.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.85</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.2013</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>952099</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰君安君得鑫两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>69.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.78</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.0640</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010699</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方红创新趋势混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>35.53</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>76.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.7943</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012671</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实核心蓝筹混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20.14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.2668</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160726</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>29.91</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>95.81</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.9810</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>070027</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实周期优选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.84</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.70</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5675</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009126</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4650</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009138</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>11.70</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3802</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011325</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰江源优势精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2131</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009139</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1765</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>161123</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>易方达并购重组指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1557</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001437</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合I</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1522</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001438</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1522</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001637</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1166</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011412</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>易方达远见成长混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1142</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009608</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0711</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010153</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0469</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>012672</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>嘉实核心蓝筹混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0333</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010154</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009609</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6523,7 +6710,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -6553,36 +6740,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100022</t>
+          <t>010115</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国天瑞强势地区精选混合</t>
+          <t>易方达远见成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.96</t>
+          <t>75.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.75</t>
+          <t>88.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4626</t>
+          <t>4.3389</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6591,36 +6778,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160726</t>
+          <t>005730</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
+          <t>国泰江源优势精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.13</t>
+          <t>70.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>92.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9789</t>
+          <t>3.6710</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6629,36 +6816,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009138</t>
+          <t>952009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合A</t>
+          <t>国泰君安君得鑫两年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.07</t>
+          <t>80.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>91.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8968</t>
+          <t>2.4120</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6667,36 +6854,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>070027</t>
+          <t>009474</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实周期优选混合</t>
+          <t>国泰致远优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>41.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6166</t>
+          <t>2.2013</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -6705,36 +6892,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519021</t>
+          <t>952099</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰金鼎价值混合</t>
+          <t>国泰君安君得鑫两年持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>69.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.64</t>
+          <t>91.78</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3133</t>
+          <t>2.0640</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -6743,36 +6930,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007593</t>
+          <t>010699</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数A</t>
+          <t>东方红创新趋势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.88</t>
+          <t>35.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>76.40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2720</t>
+          <t>1.7943</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -6781,36 +6968,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>910021</t>
+          <t>012671</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方红启华三年持有期混合型证券投资基金A</t>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>20.14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>80.42</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1872</t>
+          <t>1.2668</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -6819,32 +7006,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009139</t>
+          <t>160726</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合C</t>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>29.91</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>95.81</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1758</t>
+          <t>0.9810</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -6857,36 +7044,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007594</t>
+          <t>070027</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数C</t>
+          <t>嘉实周期优选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>90.70</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1118</t>
+          <t>0.5675</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -6895,36 +7082,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007831</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票A</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.30</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1038</t>
+          <t>0.4650</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -6933,36 +7120,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>009138</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>嘉实瑞成两年持有期混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>11.70</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>91.51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1036</t>
+          <t>0.3802</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -6971,36 +7158,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007832</t>
+          <t>011325</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票C</t>
+          <t>国泰江源优势精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.30</t>
+          <t>92.78</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0597</t>
+          <t>0.2131</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -7009,32 +7196,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>020015</t>
+          <t>009139</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国泰区位优势混合</t>
+          <t>嘉实瑞成两年持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>86.25</t>
+          <t>91.51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0548</t>
+          <t>0.1765</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -7047,36 +7234,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010153</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中加中证500指数增强A</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0338</t>
+          <t>0.1557</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -7085,32 +7272,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001626</t>
+          <t>001437</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国泰央企改革股票</t>
+          <t>易方达瑞享灵活配置混合I</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85.19</t>
+          <t>91.14</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0306</t>
+          <t>0.1522</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -7123,36 +7310,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011313</t>
+          <t>001438</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东方红启华三年持有期混合型证券投资基金B</t>
+          <t>易方达瑞享灵活配置混合E</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80.42</t>
+          <t>91.14</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0291</t>
+          <t>0.1522</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -7161,36 +7348,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010154</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中加中证500指数增强C</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>93.03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0156</t>
+          <t>0.1166</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -7199,36 +7386,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009127</t>
+          <t>011412</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票C</t>
+          <t>易方达远见成长混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>88.28</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0082</t>
+          <t>0.1142</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -7237,32 +7424,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>519034</t>
+          <t>009608</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强A</t>
+          <t>广发中证500指数增强A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>89.70</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0711</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -7275,32 +7462,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005166</t>
+          <t>010153</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
+          <t>中加中证500指数增强A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>27.62</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0469</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -7313,36 +7500,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006157</t>
+          <t>012672</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>财通量化核心优选混合</t>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0333</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -7351,36 +7538,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011084</t>
+          <t>010154</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>财通资管新添益6个月持有期混合A</t>
+          <t>中加中证500指数增强C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0142</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -7389,36 +7576,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009004</t>
+          <t>009127</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强C</t>
+          <t>嘉实基础产业优选股票C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>89.70</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -7427,34 +7614,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>011085</t>
+          <t>009609</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>财通资管新添益6个月持有期混合C</t>
+          <t>广发中证500指数增强C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -7463,6 +7652,972 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4626</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9789</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8968</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6166</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3133</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8354,7 +9509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9320,174 +10475,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001955</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧养老产业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5029</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006102</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商丰利增强债券</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0678</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001219</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根动态多因子策略混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0377</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>